--- a/conditions/schedules/train_y_first/red_square_00/top_right/inputTrain_1.2.xlsx
+++ b/conditions/schedules/train_y_first/red_square_00/top_right/inputTrain_1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\gcasa\g-casa_children_task\conditions\schedules\train_y_first\x_increasing_steps\bottom_right\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\Dropbox\PC (2)\Downloads\g-casa_children_task-master\g-casa_children_task-master\conditions\schedules\train_y_first\red_square_00\top_right\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7222E1-6ED2-45B6-BCBF-DDA72C53E4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A0C44E-7A41-411D-9944-02EDBBA0B01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,16 +523,16 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>5</v>
